--- a/data/pcp_concept_map.xlsx
+++ b/data/pcp_concept_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshh\Documents\GitHub\person_centered\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06E6F0C-E10D-439F-8DEB-D0845942C203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D72626-5D3D-40B1-BC26-6C1182CBA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14670" yWindow="105" windowWidth="14010" windowHeight="15000" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
+    <workbookView xWindow="14535" yWindow="75" windowWidth="14175" windowHeight="15375" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="111">
   <si>
     <t>concept_id</t>
   </si>
@@ -207,15 +207,6 @@
     <t>benefits</t>
   </si>
   <si>
-    <t>ipos</t>
-  </si>
-  <si>
-    <t>ipos content</t>
-  </si>
-  <si>
-    <t>ipos features</t>
-  </si>
-  <si>
     <t>documentation</t>
   </si>
   <si>
@@ -313,6 +304,69 @@
   </si>
   <si>
     <t>skill;skills;ability;abilitie;strengt;strength;capacity;capability;competent</t>
+  </si>
+  <si>
+    <t>describe pcp</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>phase of</t>
+  </si>
+  <si>
+    <t>plan document</t>
+  </si>
+  <si>
+    <t>plan content</t>
+  </si>
+  <si>
+    <t>plan features</t>
+  </si>
+  <si>
+    <t>crisis plan;crisis and safety plan;safety plan;discharge plan</t>
+  </si>
+  <si>
+    <t>crisis plan</t>
+  </si>
+  <si>
+    <t>personal plan</t>
+  </si>
+  <si>
+    <t>component of</t>
+  </si>
+  <si>
+    <t>pre-plan</t>
+  </si>
+  <si>
+    <t>service plan</t>
+  </si>
+  <si>
+    <t>ipos;treatment plan;plan of service;plan of care;care plan</t>
+  </si>
+  <si>
+    <t>The document produced as a result of the 'preplanning'</t>
+  </si>
+  <si>
+    <t>The Person Centered Planning Process is a continuous, co-designed, and person-driven approach to service delivery designed to promote and strive toward the life a person wants to live.  This process includes information and education; individual, evidence-based assessment; pre-planning; collaborative meetings; implementation and monitoring with the intent of driving services through a person-centered plan of service while building or recovering autonomy, competence and relatedness.</t>
+  </si>
+  <si>
+    <t>Provide information and individualized education regarding Person-Centered Planning and the PCP Process.</t>
+  </si>
+  <si>
+    <t>Person-centered planning (PCP) is a collaborative, person-directed process designed to promote each individual's fundamental right to self-determination while making informed choices about the life they want to live.  This leads to a documented 'service plan' that supports the actualization of the person’s dreams and desires.</t>
+  </si>
+  <si>
+    <t>Individualized, evidence-based assessment and evaluation for the purpose of understanding a person's needs to inform the 'preplanning' and 'service selection' steps of the PCP process.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Collaborative meeting(s) </t>
   </si>
 </sst>
 </file>
@@ -348,8 +402,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ACD2A-13A2-4395-8DF2-06F267761D54}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,7 +788,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,12 +796,12 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -767,7 +822,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -783,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,7 +857,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,7 +865,7 @@
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,7 +873,7 @@
         <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -831,10 +886,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -842,10 +897,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -853,7 +908,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -866,7 +921,7 @@
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -874,7 +929,7 @@
         <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -882,7 +937,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -890,7 +945,7 @@
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -900,7 +955,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
@@ -912,28 +967,34 @@
       <c r="B29" t="s">
         <v>39</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>73</v>
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>95</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -943,84 +1004,147 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>54</v>
+        <v>99</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" t="s">
-        <v>74</v>
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1031,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF48633-CF04-43E6-BDE3-853AAD3D30AA}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1225,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -1200,7 +1324,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1288,7 +1412,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1343,7 +1467,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
@@ -1354,54 +1478,54 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
@@ -1409,10 +1533,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -1420,10 +1544,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1431,10 +1555,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -1442,10 +1566,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>42</v>
@@ -1453,65 +1577,65 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1519,10 +1643,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1530,10 +1654,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1541,23 +1665,122 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/pcp_concept_map.xlsx
+++ b/data/pcp_concept_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshh\Documents\GitHub\person_centered\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D72626-5D3D-40B1-BC26-6C1182CBA11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2077D8-47E3-461D-891D-35D2FA802C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="75" windowWidth="14175" windowHeight="15375" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
+    <workbookView xWindow="15420" yWindow="210" windowWidth="12720" windowHeight="15375" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
   <si>
     <t>concept_id</t>
   </si>
@@ -78,9 +78,6 @@
     <t>has</t>
   </si>
   <si>
-    <t>goals</t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>decisions</t>
-  </si>
-  <si>
     <t>relationships</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>property</t>
   </si>
   <si>
-    <t>finances</t>
-  </si>
-  <si>
     <t>information</t>
   </si>
   <si>
@@ -144,24 +135,15 @@
     <t>feature of</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
     <t>community</t>
   </si>
   <si>
     <t>The relationships which a person has to the people, places and things around them</t>
   </si>
   <si>
-    <t>pcp</t>
-  </si>
-  <si>
     <t>defined by</t>
   </si>
   <si>
-    <t>preplanning</t>
-  </si>
-  <si>
     <t>step in</t>
   </si>
   <si>
@@ -171,12 +153,6 @@
     <t>scheduling</t>
   </si>
   <si>
-    <t>pcp meeting</t>
-  </si>
-  <si>
-    <t>service selection</t>
-  </si>
-  <si>
     <t>implementation</t>
   </si>
   <si>
@@ -186,18 +162,12 @@
     <t>adjustment</t>
   </si>
   <si>
-    <t>pcp process</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>partner</t>
-  </si>
-  <si>
     <t>understanding</t>
   </si>
   <si>
@@ -210,18 +180,12 @@
     <t>documentation</t>
   </si>
   <si>
-    <t>review</t>
-  </si>
-  <si>
     <t>addendum</t>
   </si>
   <si>
     <t>neighborhood</t>
   </si>
   <si>
-    <t>objectives</t>
-  </si>
-  <si>
     <t>culture</t>
   </si>
   <si>
@@ -252,9 +216,6 @@
     <t>achieve;accomplish;outcome</t>
   </si>
   <si>
-    <t>spouse;significant other</t>
-  </si>
-  <si>
     <t>cultural</t>
   </si>
   <si>
@@ -306,9 +267,6 @@
     <t>skill;skills;ability;abilitie;strengt;strength;capacity;capability;competent</t>
   </si>
   <si>
-    <t>describe pcp</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -321,33 +279,12 @@
     <t>phase of</t>
   </si>
   <si>
-    <t>plan document</t>
-  </si>
-  <si>
-    <t>plan content</t>
-  </si>
-  <si>
-    <t>plan features</t>
-  </si>
-  <si>
     <t>crisis plan;crisis and safety plan;safety plan;discharge plan</t>
   </si>
   <si>
-    <t>crisis plan</t>
-  </si>
-  <si>
-    <t>personal plan</t>
-  </si>
-  <si>
     <t>component of</t>
   </si>
   <si>
-    <t>pre-plan</t>
-  </si>
-  <si>
-    <t>service plan</t>
-  </si>
-  <si>
     <t>ipos;treatment plan;plan of service;plan of care;care plan</t>
   </si>
   <si>
@@ -367,6 +304,84 @@
   </si>
   <si>
     <t xml:space="preserve"> Collaborative meeting(s) </t>
+  </si>
+  <si>
+    <t>goals_objectives</t>
+  </si>
+  <si>
+    <t>pre_plan</t>
+  </si>
+  <si>
+    <t>pre_planning</t>
+  </si>
+  <si>
+    <t>crisis_plan</t>
+  </si>
+  <si>
+    <t>plan_document</t>
+  </si>
+  <si>
+    <t>advance_directive</t>
+  </si>
+  <si>
+    <t>describe_pcp</t>
+  </si>
+  <si>
+    <t>pcp_process</t>
+  </si>
+  <si>
+    <t>plan_content</t>
+  </si>
+  <si>
+    <t>service_selection</t>
+  </si>
+  <si>
+    <t>pcp_meeting</t>
+  </si>
+  <si>
+    <t>personal_finances</t>
+  </si>
+  <si>
+    <t>service_provider</t>
+  </si>
+  <si>
+    <t>screening</t>
+  </si>
+  <si>
+    <t>service_setting</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>decision_making</t>
+  </si>
+  <si>
+    <t>self_directed</t>
+  </si>
+  <si>
+    <t>self_management</t>
+  </si>
+  <si>
+    <t>self_determination</t>
+  </si>
+  <si>
+    <t>discharge_plan</t>
+  </si>
+  <si>
+    <t>independent_facilitation</t>
+  </si>
+  <si>
+    <t>person_centered_practice</t>
+  </si>
+  <si>
+    <t>periodic_review</t>
+  </si>
+  <si>
+    <t>local_area</t>
+  </si>
+  <si>
+    <t>nutrition</t>
   </si>
 </sst>
 </file>
@@ -719,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ACD2A-13A2-4395-8DF2-06F267761D54}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,18 +770,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -785,380 +800,410 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>57</v>
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>94</v>
+      </c>
+      <c r="D41" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>93</v>
       </c>
+      <c r="D42" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>54</v>
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>47</v>
+        <v>96</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF48633-CF04-43E6-BDE3-853AAD3D30AA}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1237,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1214,574 +1259,640 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/pcp_concept_map.xlsx
+++ b/data/pcp_concept_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshh\Documents\GitHub\person_centered\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2077D8-47E3-461D-891D-35D2FA802C2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBA80F5-F10D-4229-AC6F-2BBC153AAA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15420" yWindow="210" windowWidth="12720" windowHeight="15375" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
+    <workbookView xWindow="15930" yWindow="210" windowWidth="12720" windowHeight="10170" activeTab="1" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="140">
   <si>
     <t>concept_id</t>
   </si>
@@ -153,15 +153,9 @@
     <t>scheduling</t>
   </si>
   <si>
-    <t>implementation</t>
-  </si>
-  <si>
     <t>monitoring</t>
   </si>
   <si>
-    <t>adjustment</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>service;support;servicesupport;encounter;claim</t>
   </si>
   <si>
-    <t>plan</t>
-  </si>
-  <si>
     <t>achieve;accomplish;outcome</t>
   </si>
   <si>
@@ -267,15 +258,9 @@
     <t>skill;skills;ability;abilitie;strengt;strength;capacity;capability;competent</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
     <t>act</t>
   </si>
   <si>
-    <t>do</t>
-  </si>
-  <si>
     <t>phase of</t>
   </si>
   <si>
@@ -382,6 +367,93 @@
   </si>
   <si>
     <t>nutrition</t>
+  </si>
+  <si>
+    <t>observe</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>motivation</t>
+  </si>
+  <si>
+    <t>capability</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>Motives are feelings of 'want' or 'need'; an aggregate of mental processes that energize and direct behavior/action.</t>
+  </si>
+  <si>
+    <t>How conducive is a person's environment to achieving a goal?  Together with 'capability', it makes a behavior/action possible.</t>
+  </si>
+  <si>
+    <t>Does the person have the current skills, strength and resources to accomplish a goal?  Together with 'opportunity', it makes a behavior/action possible.</t>
+  </si>
+  <si>
+    <t>decide_goals</t>
+  </si>
+  <si>
+    <t>decide_methods</t>
+  </si>
+  <si>
+    <t>prioritize_goals</t>
+  </si>
+  <si>
+    <t>focus_goals</t>
+  </si>
+  <si>
+    <t>Determine which goals and objectives to pursue.</t>
+  </si>
+  <si>
+    <t>Rank existing goals according to their importance for the person and other considerations</t>
+  </si>
+  <si>
+    <t>Include or filter out goals/objectives based on priority and other considerations</t>
+  </si>
+  <si>
+    <t>select_services</t>
+  </si>
+  <si>
+    <t>select_providers</t>
+  </si>
+  <si>
+    <t>select_housing</t>
+  </si>
+  <si>
+    <t>select_location</t>
+  </si>
+  <si>
+    <t>select_roommates</t>
+  </si>
+  <si>
+    <t>hear_story</t>
+  </si>
+  <si>
+    <t>adjust_plan</t>
+  </si>
+  <si>
+    <t>implement_plan</t>
+  </si>
+  <si>
+    <t>train_plan</t>
+  </si>
+  <si>
+    <t>pcp_facilitation</t>
+  </si>
+  <si>
+    <t>conflict_free_facilitation</t>
+  </si>
+  <si>
+    <t>option for</t>
+  </si>
+  <si>
+    <t>requirement of</t>
   </si>
 </sst>
 </file>
@@ -734,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ACD2A-13A2-4395-8DF2-06F267761D54}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -803,28 +875,28 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -845,12 +917,12 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,12 +930,12 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,18 +951,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -903,10 +975,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -914,10 +986,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -925,7 +997,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -935,15 +1007,15 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -951,7 +1023,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
@@ -959,22 +1031,22 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
@@ -982,7 +1054,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -992,12 +1064,12 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
@@ -1007,189 +1079,287 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1200,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF48633-CF04-43E6-BDE3-853AAD3D30AA}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,7 +1429,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1270,7 +1440,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1292,7 +1462,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1325,7 +1495,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -1347,7 +1517,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1391,7 +1561,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1413,7 +1583,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
@@ -1424,7 +1594,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1446,7 +1616,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1457,10 +1627,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
@@ -1471,15 +1641,15 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
@@ -1490,7 +1660,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
@@ -1512,7 +1682,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -1523,7 +1693,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1556,7 +1726,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1567,10 +1737,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -1578,98 +1748,95 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-      <c r="B41" t="s">
-        <v>58</v>
-      </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
@@ -1677,10 +1844,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
@@ -1688,32 +1855,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
@@ -1721,10 +1888,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
@@ -1732,10 +1899,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
@@ -1743,156 +1910,321 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="C62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>135</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
         <v>45</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/pcp_concept_map.xlsx
+++ b/data/pcp_concept_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshh\Documents\GitHub\person_centered\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBA80F5-F10D-4229-AC6F-2BBC153AAA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB674966-5FC0-42E3-B127-FEDE5DFAB883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15930" yWindow="210" windowWidth="12720" windowHeight="10170" activeTab="1" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
+    <workbookView xWindow="10335" yWindow="90" windowWidth="18375" windowHeight="15330" xr2:uid="{0FF5C345-8363-416F-BD94-A73AAC7F19E9}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
   <si>
     <t>concept_id</t>
   </si>
@@ -48,18 +48,12 @@
     <t>person</t>
   </si>
   <si>
-    <t>Features which can be attributed to the person, as opposed to his/her connections, environment, etc.</t>
-  </si>
-  <si>
     <t>concept_definition</t>
   </si>
   <si>
     <t>direction</t>
   </si>
   <si>
-    <t>The aspects of the person which allow him/her to imagine a future and to plan and work to achieve it</t>
-  </si>
-  <si>
     <t>connections</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>attributes; characteristics</t>
   </si>
   <si>
-    <t>Natural relationships which the person has with other people.  Does not include economic relationships or interactions with "systems".</t>
-  </si>
-  <si>
     <t>natural supports</t>
   </si>
   <si>
@@ -138,9 +129,6 @@
     <t>community</t>
   </si>
   <si>
-    <t>The relationships which a person has to the people, places and things around them</t>
-  </si>
-  <si>
     <t>defined by</t>
   </si>
   <si>
@@ -150,9 +138,6 @@
     <t>assessment</t>
   </si>
   <si>
-    <t>scheduling</t>
-  </si>
-  <si>
     <t>monitoring</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>family</t>
   </si>
   <si>
-    <t>understanding</t>
-  </si>
-  <si>
     <t>source of</t>
   </si>
   <si>
@@ -282,15 +264,6 @@
     <t>Provide information and individualized education regarding Person-Centered Planning and the PCP Process.</t>
   </si>
   <si>
-    <t>Person-centered planning (PCP) is a collaborative, person-directed process designed to promote each individual's fundamental right to self-determination while making informed choices about the life they want to live.  This leads to a documented 'service plan' that supports the actualization of the person’s dreams and desires.</t>
-  </si>
-  <si>
-    <t>Individualized, evidence-based assessment and evaluation for the purpose of understanding a person's needs to inform the 'preplanning' and 'service selection' steps of the PCP process.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Collaborative meeting(s) </t>
-  </si>
-  <si>
     <t>goals_objectives</t>
   </si>
   <si>
@@ -315,12 +288,6 @@
     <t>pcp_process</t>
   </si>
   <si>
-    <t>plan_content</t>
-  </si>
-  <si>
-    <t>service_selection</t>
-  </si>
-  <si>
     <t>pcp_meeting</t>
   </si>
   <si>
@@ -408,9 +375,6 @@
     <t>focus_goals</t>
   </si>
   <si>
-    <t>Determine which goals and objectives to pursue.</t>
-  </si>
-  <si>
     <t>Rank existing goals according to their importance for the person and other considerations</t>
   </si>
   <si>
@@ -447,13 +411,226 @@
     <t>pcp_facilitation</t>
   </si>
   <si>
-    <t>conflict_free_facilitation</t>
-  </si>
-  <si>
     <t>option for</t>
   </si>
   <si>
-    <t>requirement of</t>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>employment</t>
+  </si>
+  <si>
+    <t>service_coordination</t>
+  </si>
+  <si>
+    <t>conflict_free</t>
+  </si>
+  <si>
+    <t>plan_of_service</t>
+  </si>
+  <si>
+    <t>behavior_treatment_plan</t>
+  </si>
+  <si>
+    <t>treatment_plan</t>
+  </si>
+  <si>
+    <t>related_plan_documents</t>
+  </si>
+  <si>
+    <t>dignity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features or characteristics which can be attributed to the person, as opposed to his/her connections, environment, etc.  These may be characteristics inherited at birth or developed over the course of one's life. </t>
+  </si>
+  <si>
+    <t>The aspects of the person which allow him/her to imagine a future, to make choices, and to plan and work to achieve their goals.</t>
+  </si>
+  <si>
+    <t>The relationships which a person has to their context: the people, places and things around them</t>
+  </si>
+  <si>
+    <t>Beliefs and standards to which a person ascribes, and which inform their goals and objectives.</t>
+  </si>
+  <si>
+    <t>Choosing between available options in order to meet needs and accomplish goals.</t>
+  </si>
+  <si>
+    <t>An organization or individual certified to provide and bill for services under the benefit.</t>
+  </si>
+  <si>
+    <t>A support, service, medication, or other resource paid for under the benefit.</t>
+  </si>
+  <si>
+    <t>The physical setting in which a service is provided.  This may include a hospital, office, or community-based setting.</t>
+  </si>
+  <si>
+    <t>Property owned by the person or to which the person has rights (e.g. via a lease)</t>
+  </si>
+  <si>
+    <t>The local neighborhood environment in which the person's home is located; for rural areas, this may be a larger area of adjacent properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessible areas of natural environment, including parks, managed forests, wilderness areas, and more. </t>
+  </si>
+  <si>
+    <t>Any resource to which a person has access, either through ownership or as a purchased/covered service</t>
+  </si>
+  <si>
+    <t>The document(s) which collectively make up all goals, objectives and related services which are actively being pursued by/for a person at any given time.</t>
+  </si>
+  <si>
+    <t>A crisis or safety plan identifying the person's wishes in the event that they are unable to make decsions (e.g. in certain psychiatric or other crisis events)</t>
+  </si>
+  <si>
+    <t>A comprehensive plan including all active goals/objectives and the services and other supports related to these.</t>
+  </si>
+  <si>
+    <t>Discipline-specific plans of treatment which may include more detailed short-term objectives pursued as part of a treatment regimen (e.g. detailed occupational therapy goals)</t>
+  </si>
+  <si>
+    <t>Document detailing changes to the plan of service in order to adjust goals, objectives, and services based on the person's changing capabilities, opportunities, and motivation.</t>
+  </si>
+  <si>
+    <t>Natural relationships which the person has with other people.  Does not include economic relationships or interactions with "systems" classified under "resources".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-selected interpersonal relationships characterized by loyalty, generosity, forgiveness, mutual understanding, enjoyment of each other's company, trust, and comfort being oneself. </t>
+  </si>
+  <si>
+    <t>Relationships with others by birth, adoption, or marriage.  Includes relationship with spouse.</t>
+  </si>
+  <si>
+    <t>Take in all relevant information related to the person and their direction/definition/connections. Note changes.</t>
+  </si>
+  <si>
+    <t>Interpretation of observations to make a meaningful 'story' about the relationship of the person's desired direction and current situation (description and connections)</t>
+  </si>
+  <si>
+    <t>Prioritize options and decide on areas of focus for implementation</t>
+  </si>
+  <si>
+    <t>Implement decisions made by the person (e.g. by training providers and providing services as specified).  Loop back to observe whether the change is having the intended effect.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborative meeting(s) </t>
+  </si>
+  <si>
+    <t>A set of practices intended to align the use of the benefit with the goals and objectives of the person receiving services, and to tailor those services in a personalized manner.</t>
+  </si>
+  <si>
+    <t>Formal documentation of person centered practices to assure consistency of implementation.</t>
+  </si>
+  <si>
+    <t>The use of self-directed budgets which give individuals authority and direct responsibility to manage their services with the assistance of available supports.</t>
+  </si>
+  <si>
+    <t>Proximity and ease of access to resources</t>
+  </si>
+  <si>
+    <t>Written statement of a person's wishes regarding treatment, made to ensure those wishes are carried out if the person is unable to communicate.  Includes psychiatric advance directives.</t>
+  </si>
+  <si>
+    <t>The absence conflicts of interest for the providers and funders involved.</t>
+  </si>
+  <si>
+    <t>The need to be free from risks to health or safety which are not voluntarily taken by the person's conscious decision</t>
+  </si>
+  <si>
+    <t>Planning document detailing the transition of a person's care from one facility, provider, or level-of-care to another.</t>
+  </si>
+  <si>
+    <t>Document completed at specified intervals to prompt check-in with the person regarding goals/objectives.</t>
+  </si>
+  <si>
+    <t>A specialized plan for the purpose of treating, managing, controlling, or extinguishing behaviors that are  seriously  aggressive,  self-injurious,  or  that  place  the  individual  or  others  at  risk  of  harm.</t>
+  </si>
+  <si>
+    <t>Methods for assisting the person in facilitating the person-centered planning process</t>
+  </si>
+  <si>
+    <t>The person's decision of which goals and objectives to pursue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The beliefs, social forms, and material traits of a community or other collective group.  Such groups may be defined by racial, religious, or social group to which the person belongs. </t>
+  </si>
+  <si>
+    <t>Characteristics of available options which lead a person to value one option more than others.</t>
+  </si>
+  <si>
+    <t>Personal skills, abilities, capacities, and positive attributes which the person has.</t>
+  </si>
+  <si>
+    <t>The ability to complete and manage aspects of caring for one's own physical and behavioral needs which may otherwise require assistance.</t>
+  </si>
+  <si>
+    <t>Availability of information which is relevant for personal decision-making</t>
+  </si>
+  <si>
+    <t>Access to affordable, healthy food options (especially fresh fruits and vegetables) within convenient traveling distance</t>
+  </si>
+  <si>
+    <t>Access to funds which belong to the person</t>
+  </si>
+  <si>
+    <t>The person's decision of how their goals and objectives will be pursued and supported by the benefit</t>
+  </si>
+  <si>
+    <t>Selection of specific services which are relevant to support a person's achievement of their goals/objectives</t>
+  </si>
+  <si>
+    <t>Selection of specific provider agencies and specific clinicians/staff to provide the selected services.</t>
+  </si>
+  <si>
+    <t>For people receiving services including housing, the selection of a specific living arrangement</t>
+  </si>
+  <si>
+    <t>For people receiving services including housing, the selection of a specific home location from a set of options.</t>
+  </si>
+  <si>
+    <t>For people receiving services including housing, the selection of roommates and/or housemates.</t>
+  </si>
+  <si>
+    <t>Checking in to track changes in a person's situation and status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inquiry to identify whether a person is at risk of as-yet-unrecognised conditions or risk markers which may benefit from further investigation. </t>
+  </si>
+  <si>
+    <t>Individualized, evidence-based assessment and evaluation for the purpose of understanding a person's needs to inform the PCP process.</t>
+  </si>
+  <si>
+    <t>Preparatory steps for the person to set the agenda and coordinate the PCP Meeting; these include defining the format, facilitation, participants, time and location for the PCP Meeting, as well as scheduling the meeting.</t>
+  </si>
+  <si>
+    <t>Collaborative facilitation of the PCP process by the person and an individual who is independent  of  the community mental health system and has no financial interest in the services outlined in the plan of service.</t>
+  </si>
+  <si>
+    <t>Areas of life where a person's strengths and connections are not sufficient to achieve their goals and objectives.</t>
+  </si>
+  <si>
+    <t>The quality of being worthy of homor and respect, dignity is an attribute of all persons.  It is the foundation of human rights and ethical treatment.</t>
+  </si>
+  <si>
+    <t>Specific training is provided to staff directly providing services as part of the plan of service and related plan documents.</t>
+  </si>
+  <si>
+    <t>Steps taken to implement the person's plan, including service authorization, scheduling of appointments, and actively working to achieve goals and objectives using services funded by the benefit.</t>
+  </si>
+  <si>
+    <t>The broader region in which a person lives, which impacts the person through availability and proximity of resources (e.g. urban/rural, health professionals) and opportunities (e.g. labor market).</t>
+  </si>
+  <si>
+    <t>The exchange of goods, services and labor in the area where the person lives</t>
+  </si>
+  <si>
+    <t>Adjustments made to the plan based on changes in the person's priorities, situation, needs or other factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The deliberate organization of information, activities or resources between two or more participants involved in a person's services to facilitate the appropriate delivery of those services. </t>
+  </si>
+  <si>
+    <t>The state of being that a person aspires to (hopes and dreams), as well as the specific steps that are intended to lead to the achievement of that status.</t>
   </si>
 </sst>
 </file>
@@ -806,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05ACD2A-13A2-4395-8DF2-06F267761D54}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,524 +1019,712 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>16</v>
       </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>70</v>
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>176</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>99</v>
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" t="s">
-        <v>60</v>
+        <v>128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>109</v>
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>45</v>
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>108</v>
+        <v>96</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>93</v>
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>90</v>
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>106</v>
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>137</v>
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="C64" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>131</v>
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>132</v>
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" t="s">
-        <v>61</v>
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" t="s">
-        <v>66</v>
+        <v>119</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>95</v>
-      </c>
-      <c r="C73" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>94</v>
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>135</v>
+        <v>87</v>
+      </c>
+      <c r="C75" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>134</v>
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>133</v>
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>188</v>
       </c>
       <c r="D77" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" t="s">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>44</v>
+        <v>123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1370,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF48633-CF04-43E6-BDE3-853AAD3D30AA}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,101 +1750,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,711 +1852,711 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,32 +2564,87 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
